--- a/data/pca/factorExposure/factorExposure_2015-03-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02256552366552168</v>
+        <v>0.01338281126570899</v>
       </c>
       <c r="C2">
-        <v>0.02631573516929832</v>
+        <v>0.05189791309612495</v>
       </c>
       <c r="D2">
-        <v>-0.1462818684892154</v>
+        <v>-0.1211103162677424</v>
       </c>
       <c r="E2">
-        <v>-0.04629551798776847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0346049749162661</v>
+      </c>
+      <c r="F2">
+        <v>-0.04041187983285161</v>
+      </c>
+      <c r="G2">
+        <v>0.07087699336033673</v>
+      </c>
+      <c r="H2">
+        <v>-0.1333553913750519</v>
+      </c>
+      <c r="I2">
+        <v>0.009464363204210758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04822068423804247</v>
+        <v>0.02235918478175639</v>
       </c>
       <c r="C4">
-        <v>0.07239284884714804</v>
+        <v>0.1096042839291974</v>
       </c>
       <c r="D4">
-        <v>-0.1043775118509042</v>
+        <v>-0.1140481854823309</v>
       </c>
       <c r="E4">
-        <v>-0.1067691969381332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02659241104487062</v>
+      </c>
+      <c r="F4">
+        <v>-0.09874981141539561</v>
+      </c>
+      <c r="G4">
+        <v>-0.0236450483140544</v>
+      </c>
+      <c r="H4">
+        <v>-0.01171087996952861</v>
+      </c>
+      <c r="I4">
+        <v>-0.1003069047752765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02957368583167405</v>
+        <v>0.03428750002020296</v>
       </c>
       <c r="C6">
-        <v>0.01629931904022582</v>
+        <v>0.03999505845310222</v>
       </c>
       <c r="D6">
-        <v>-0.1172557264949669</v>
+        <v>-0.104358400564054</v>
       </c>
       <c r="E6">
-        <v>-0.06371494913934138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.07304468239454279</v>
+      </c>
+      <c r="F6">
+        <v>-0.04742078768254931</v>
+      </c>
+      <c r="G6">
+        <v>-0.03442852434390022</v>
+      </c>
+      <c r="H6">
+        <v>-0.02335997214072921</v>
+      </c>
+      <c r="I6">
+        <v>-0.01130271205921267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.001629659315291279</v>
+        <v>0.007305508396835986</v>
       </c>
       <c r="C7">
-        <v>0.02545907814433457</v>
+        <v>0.04001546889352263</v>
       </c>
       <c r="D7">
-        <v>-0.107874174978466</v>
+        <v>-0.08920582404110253</v>
       </c>
       <c r="E7">
-        <v>-0.02718231388750525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05800575912359753</v>
+      </c>
+      <c r="F7">
+        <v>-0.0106276553270744</v>
+      </c>
+      <c r="G7">
+        <v>-0.06694783690130419</v>
+      </c>
+      <c r="H7">
+        <v>-0.03227704304794139</v>
+      </c>
+      <c r="I7">
+        <v>-0.06836912467404253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.00389848612591165</v>
+        <v>-0.00428871249316072</v>
       </c>
       <c r="C8">
-        <v>0.02768366254312826</v>
+        <v>0.03885332176654439</v>
       </c>
       <c r="D8">
-        <v>-0.0835499061279588</v>
+        <v>-0.0645289873024866</v>
       </c>
       <c r="E8">
-        <v>-0.04353483370738925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04255786999666142</v>
+      </c>
+      <c r="F8">
+        <v>-0.05002364908062931</v>
+      </c>
+      <c r="G8">
+        <v>0.04232255971357974</v>
+      </c>
+      <c r="H8">
+        <v>-0.02182597669158819</v>
+      </c>
+      <c r="I8">
+        <v>-0.04399070908086735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03857098330568216</v>
+        <v>0.01660979185936288</v>
       </c>
       <c r="C9">
-        <v>0.06378275158124817</v>
+        <v>0.0903571475071404</v>
       </c>
       <c r="D9">
-        <v>-0.1049764895588346</v>
+        <v>-0.09992259389075774</v>
       </c>
       <c r="E9">
-        <v>-0.08613398805659021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02135187358368199</v>
+      </c>
+      <c r="F9">
+        <v>-0.0657237303271086</v>
+      </c>
+      <c r="G9">
+        <v>-0.04200270454853651</v>
+      </c>
+      <c r="H9">
+        <v>-0.02986129801853761</v>
+      </c>
+      <c r="I9">
+        <v>-0.06338498815395498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1825678634226686</v>
+        <v>0.243010787557512</v>
       </c>
       <c r="C10">
-        <v>-0.1689619661285841</v>
+        <v>-0.09384899972801199</v>
       </c>
       <c r="D10">
-        <v>0.01858981742600625</v>
+        <v>0.01235313161666645</v>
       </c>
       <c r="E10">
-        <v>-0.04035870407278608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01608651778189528</v>
+      </c>
+      <c r="F10">
+        <v>-0.0374509057184386</v>
+      </c>
+      <c r="G10">
+        <v>0.01300261231910368</v>
+      </c>
+      <c r="H10">
+        <v>0.0123878106052889</v>
+      </c>
+      <c r="I10">
+        <v>0.01640407896564176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01843845363900267</v>
+        <v>0.01223765816818783</v>
       </c>
       <c r="C11">
-        <v>0.04121909206926003</v>
+        <v>0.05863106194838532</v>
       </c>
       <c r="D11">
-        <v>-0.04249384600837541</v>
+        <v>-0.0371090509093476</v>
       </c>
       <c r="E11">
-        <v>0.01192618885385179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02738328067170668</v>
+      </c>
+      <c r="F11">
+        <v>0.01412502395630754</v>
+      </c>
+      <c r="G11">
+        <v>-0.03561949371104854</v>
+      </c>
+      <c r="H11">
+        <v>-0.01084019824070176</v>
+      </c>
+      <c r="I11">
+        <v>-0.04201966072738209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01736955201188197</v>
+        <v>0.01290777135970139</v>
       </c>
       <c r="C12">
-        <v>0.04212458746341935</v>
+        <v>0.05180746304851131</v>
       </c>
       <c r="D12">
-        <v>-0.05515891145898781</v>
+        <v>-0.04465994830181547</v>
       </c>
       <c r="E12">
-        <v>-0.0007669992897994392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.02228481552440799</v>
+      </c>
+      <c r="F12">
+        <v>0.01652109963651412</v>
+      </c>
+      <c r="G12">
+        <v>-0.05836172496705512</v>
+      </c>
+      <c r="H12">
+        <v>-0.03330006289510622</v>
+      </c>
+      <c r="I12">
+        <v>-0.02159375718550155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.00879004827031998</v>
+        <v>0.004498140924814886</v>
       </c>
       <c r="C13">
-        <v>0.02715300472940399</v>
+        <v>0.05762459512121705</v>
       </c>
       <c r="D13">
-        <v>-0.1316295322850087</v>
+        <v>-0.1535297066318216</v>
       </c>
       <c r="E13">
-        <v>-0.06418677020517535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04588690070876787</v>
+      </c>
+      <c r="F13">
+        <v>-0.04085437320366861</v>
+      </c>
+      <c r="G13">
+        <v>-0.02481075607629285</v>
+      </c>
+      <c r="H13">
+        <v>-0.1131873086292846</v>
+      </c>
+      <c r="I13">
+        <v>0.009874746473384842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004037598002450308</v>
+        <v>0.004527631012877663</v>
       </c>
       <c r="C14">
-        <v>0.01945167116438147</v>
+        <v>0.03501597900913174</v>
       </c>
       <c r="D14">
-        <v>-0.07952396804124628</v>
+        <v>-0.08773865898589241</v>
       </c>
       <c r="E14">
-        <v>-0.02426006056099653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.06453176675772086</v>
+      </c>
+      <c r="F14">
+        <v>-0.02794253504625666</v>
+      </c>
+      <c r="G14">
+        <v>-0.07181195893731736</v>
+      </c>
+      <c r="H14">
+        <v>-0.1099246322687681</v>
+      </c>
+      <c r="I14">
+        <v>-0.06526200660070172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002760285129109151</v>
+        <v>-0.003292538437566679</v>
       </c>
       <c r="C15">
-        <v>0.01313849165578297</v>
+        <v>0.0295622125475147</v>
       </c>
       <c r="D15">
-        <v>-0.04084659515390969</v>
+        <v>-0.05645198228476622</v>
       </c>
       <c r="E15">
-        <v>-0.005649975978569453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.02404353659391443</v>
+      </c>
+      <c r="F15">
+        <v>-0.007948149404049571</v>
+      </c>
+      <c r="G15">
+        <v>-0.01526761544235975</v>
+      </c>
+      <c r="H15">
+        <v>-0.03782205934952981</v>
+      </c>
+      <c r="I15">
+        <v>-0.04701446331115249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01763140974974254</v>
+        <v>0.01139628783014621</v>
       </c>
       <c r="C16">
-        <v>0.03760782009416393</v>
+        <v>0.05138483711972305</v>
       </c>
       <c r="D16">
-        <v>-0.04726647846161422</v>
+        <v>-0.04044538041280512</v>
       </c>
       <c r="E16">
-        <v>0.0005537126492579464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02836018072617744</v>
+      </c>
+      <c r="F16">
+        <v>0.008450835692350899</v>
+      </c>
+      <c r="G16">
+        <v>-0.04479181019445555</v>
+      </c>
+      <c r="H16">
+        <v>-0.01073378279381833</v>
+      </c>
+      <c r="I16">
+        <v>-0.02807851097352219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.0003189062562674032</v>
+        <v>-0.00227009561896376</v>
       </c>
       <c r="C19">
-        <v>0.02145732214369949</v>
+        <v>0.01699452367110606</v>
       </c>
       <c r="D19">
-        <v>-0.07036791582252173</v>
+        <v>-0.0468071622134103</v>
       </c>
       <c r="E19">
-        <v>-0.04127813281811222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.006116309835479783</v>
+      </c>
+      <c r="F19">
+        <v>-0.01407107522879885</v>
+      </c>
+      <c r="G19">
+        <v>-0.007766231064608736</v>
+      </c>
+      <c r="H19">
+        <v>-0.04855583955473899</v>
+      </c>
+      <c r="I19">
+        <v>-0.01772200709026553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.003985631735339483</v>
+        <v>0.005764574348219228</v>
       </c>
       <c r="C20">
-        <v>0.0261123409510855</v>
+        <v>0.04289617594002745</v>
       </c>
       <c r="D20">
-        <v>-0.07457638309872995</v>
+        <v>-0.07999595231928038</v>
       </c>
       <c r="E20">
-        <v>-0.04749963467088939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.03212204082343929</v>
+      </c>
+      <c r="F20">
+        <v>-0.02698151863740226</v>
+      </c>
+      <c r="G20">
+        <v>-0.04673437548964508</v>
+      </c>
+      <c r="H20">
+        <v>-0.01377264427711915</v>
+      </c>
+      <c r="I20">
+        <v>-0.05799194559456194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01104956996229632</v>
+        <v>0.004975452581694698</v>
       </c>
       <c r="C21">
-        <v>0.03231890669868163</v>
+        <v>0.05011689729553069</v>
       </c>
       <c r="D21">
-        <v>-0.1272513910417387</v>
+        <v>-0.1135216895094596</v>
       </c>
       <c r="E21">
-        <v>-0.1006523157739072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04079445273089303</v>
+      </c>
+      <c r="F21">
+        <v>-0.09156374495858344</v>
+      </c>
+      <c r="G21">
+        <v>-0.06170260768671693</v>
+      </c>
+      <c r="H21">
+        <v>-0.1918926968604363</v>
+      </c>
+      <c r="I21">
+        <v>-0.04592783013098455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.005945801036995151</v>
+        <v>-0.00784483780733127</v>
       </c>
       <c r="C22">
-        <v>0.07486845377140135</v>
+        <v>0.09706252217086922</v>
       </c>
       <c r="D22">
-        <v>-0.3161054012720575</v>
+        <v>-0.2686390561708711</v>
       </c>
       <c r="E22">
-        <v>-0.07597917747876683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.1026157588410147</v>
+      </c>
+      <c r="F22">
+        <v>-0.05300708400923084</v>
+      </c>
+      <c r="G22">
+        <v>0.5154678747709462</v>
+      </c>
+      <c r="H22">
+        <v>0.1731592330100476</v>
+      </c>
+      <c r="I22">
+        <v>0.1046859250279914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.006282998488889765</v>
+        <v>-0.004720819246803602</v>
       </c>
       <c r="C23">
-        <v>0.07511505871115443</v>
+        <v>0.09863957005843552</v>
       </c>
       <c r="D23">
-        <v>-0.3146921095178083</v>
+        <v>-0.270980861342105</v>
       </c>
       <c r="E23">
-        <v>-0.076165446313784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0974077515995031</v>
+      </c>
+      <c r="F23">
+        <v>-0.05551477639099715</v>
+      </c>
+      <c r="G23">
+        <v>0.4993840568821127</v>
+      </c>
+      <c r="H23">
+        <v>0.1639223831856576</v>
+      </c>
+      <c r="I23">
+        <v>0.1009361302057363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0242949399587564</v>
+        <v>0.01268477517783293</v>
       </c>
       <c r="C24">
-        <v>0.05967164206345032</v>
+        <v>0.06955862422412903</v>
       </c>
       <c r="D24">
-        <v>-0.06000710598824712</v>
+        <v>-0.04252656977541563</v>
       </c>
       <c r="E24">
-        <v>-0.002124448485899471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03460605322031283</v>
+      </c>
+      <c r="F24">
+        <v>0.00708281658995575</v>
+      </c>
+      <c r="G24">
+        <v>-0.04606824906479874</v>
+      </c>
+      <c r="H24">
+        <v>-0.03464513649200273</v>
+      </c>
+      <c r="I24">
+        <v>-0.04985491089334731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02474329435753046</v>
+        <v>0.01705812240909674</v>
       </c>
       <c r="C25">
-        <v>0.05090678408939723</v>
+        <v>0.06409942878704888</v>
       </c>
       <c r="D25">
-        <v>-0.05689622612864606</v>
+        <v>-0.04689797796745652</v>
       </c>
       <c r="E25">
-        <v>-0.009117404989246467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.02161332483064164</v>
+      </c>
+      <c r="F25">
+        <v>0.006797561426113862</v>
+      </c>
+      <c r="G25">
+        <v>-0.03738769394977532</v>
+      </c>
+      <c r="H25">
+        <v>-0.01072028115747565</v>
+      </c>
+      <c r="I25">
+        <v>-0.02595737655050215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.009470071132553768</v>
+        <v>0.01836518145372318</v>
       </c>
       <c r="C26">
-        <v>0.01641070962716153</v>
+        <v>0.02950304071216975</v>
       </c>
       <c r="D26">
-        <v>-0.06241004663001088</v>
+        <v>-0.05297575670114603</v>
       </c>
       <c r="E26">
-        <v>-0.03363271028912058</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04271667013932222</v>
+      </c>
+      <c r="F26">
+        <v>-0.04437109437020086</v>
+      </c>
+      <c r="G26">
+        <v>-0.04650591032602706</v>
+      </c>
+      <c r="H26">
+        <v>-0.07652440930780052</v>
+      </c>
+      <c r="I26">
+        <v>-0.06239955151787422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2615544474122751</v>
+        <v>0.3120382007787835</v>
       </c>
       <c r="C28">
-        <v>-0.1916430458152953</v>
+        <v>-0.09744127280455646</v>
       </c>
       <c r="D28">
-        <v>0.009750304163564901</v>
+        <v>0.02387426394520248</v>
       </c>
       <c r="E28">
-        <v>-0.03892893397790834</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05145621160663196</v>
+      </c>
+      <c r="F28">
+        <v>-0.04518536986481592</v>
+      </c>
+      <c r="G28">
+        <v>0.06216485654183028</v>
+      </c>
+      <c r="H28">
+        <v>-0.0280446883340526</v>
+      </c>
+      <c r="I28">
+        <v>-0.02123225448386442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001673480396909118</v>
+        <v>0.003263485660146919</v>
       </c>
       <c r="C29">
-        <v>0.02261955151245701</v>
+        <v>0.0407921335408989</v>
       </c>
       <c r="D29">
-        <v>-0.07698146455897144</v>
+        <v>-0.09110560928232854</v>
       </c>
       <c r="E29">
-        <v>-0.03321621363826711</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.07311993489270559</v>
+      </c>
+      <c r="F29">
+        <v>-0.03075241679012209</v>
+      </c>
+      <c r="G29">
+        <v>-0.09545865431141012</v>
+      </c>
+      <c r="H29">
+        <v>-0.1236032850826618</v>
+      </c>
+      <c r="I29">
+        <v>-0.07034078465078093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.03084139387443467</v>
+        <v>0.01911432453078223</v>
       </c>
       <c r="C30">
-        <v>0.07039559163403271</v>
+        <v>0.09834010516502778</v>
       </c>
       <c r="D30">
-        <v>-0.1505038542534886</v>
+        <v>-0.1230420641615188</v>
       </c>
       <c r="E30">
-        <v>-0.04874946721022218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.06786807129727306</v>
+      </c>
+      <c r="F30">
+        <v>-0.02179669204460951</v>
+      </c>
+      <c r="G30">
+        <v>-0.01366940757514923</v>
+      </c>
+      <c r="H30">
+        <v>-0.01219105566061925</v>
+      </c>
+      <c r="I30">
+        <v>-0.06813742363281154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03819335080166505</v>
+        <v>0.01138162798362969</v>
       </c>
       <c r="C31">
-        <v>0.08362748240681007</v>
+        <v>0.0949070962917177</v>
       </c>
       <c r="D31">
-        <v>-0.04906286892212783</v>
+        <v>-0.03270795764952956</v>
       </c>
       <c r="E31">
-        <v>-0.0186821097717311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01910056340764444</v>
+      </c>
+      <c r="F31">
+        <v>-0.01719647653391812</v>
+      </c>
+      <c r="G31">
+        <v>-0.01636092980937802</v>
+      </c>
+      <c r="H31">
+        <v>-0.0330922584326717</v>
+      </c>
+      <c r="I31">
+        <v>-0.03712660909690946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01631098612640885</v>
+        <v>0.0120622400125492</v>
       </c>
       <c r="C32">
-        <v>0.04030739972068215</v>
+        <v>0.05107263947962794</v>
       </c>
       <c r="D32">
-        <v>-0.07650850976366196</v>
+        <v>-0.075645384979889</v>
       </c>
       <c r="E32">
-        <v>-0.06274495332730286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.001277630954202561</v>
+      </c>
+      <c r="F32">
+        <v>-0.05002992936614607</v>
+      </c>
+      <c r="G32">
+        <v>-0.02168514745533592</v>
+      </c>
+      <c r="H32">
+        <v>-0.06426702009868251</v>
+      </c>
+      <c r="I32">
+        <v>-0.0280010192417692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.008387210441004057</v>
+        <v>0.009205262364778378</v>
       </c>
       <c r="C33">
-        <v>0.04168390956913895</v>
+        <v>0.06300877214229195</v>
       </c>
       <c r="D33">
-        <v>-0.111142881789484</v>
+        <v>-0.1108760870096811</v>
       </c>
       <c r="E33">
-        <v>-0.05466181466651752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04109320131597616</v>
+      </c>
+      <c r="F33">
+        <v>-0.03017209902548856</v>
+      </c>
+      <c r="G33">
+        <v>-0.03137800988874698</v>
+      </c>
+      <c r="H33">
+        <v>-0.03790417156328296</v>
+      </c>
+      <c r="I33">
+        <v>-0.03648948388740452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02260000001793769</v>
+        <v>0.01192737597333454</v>
       </c>
       <c r="C34">
-        <v>0.05944155885756611</v>
+        <v>0.06362876376082818</v>
       </c>
       <c r="D34">
-        <v>-0.0499989958471167</v>
+        <v>-0.02324675316305182</v>
       </c>
       <c r="E34">
-        <v>0.04201564272191449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02993964758173182</v>
+      </c>
+      <c r="F34">
+        <v>0.03970829034381575</v>
+      </c>
+      <c r="G34">
+        <v>-0.03044713565564388</v>
+      </c>
+      <c r="H34">
+        <v>-0.02580808290932518</v>
+      </c>
+      <c r="I34">
+        <v>-0.02445093628247208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003755012317891091</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01334790238365834</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03193551769129126</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01054768365019528</v>
+      </c>
+      <c r="F35">
+        <v>-0.01593374078521636</v>
+      </c>
+      <c r="G35">
+        <v>-0.04091612521173207</v>
+      </c>
+      <c r="H35">
+        <v>-0.04068620976364234</v>
+      </c>
+      <c r="I35">
+        <v>-0.03615987383751561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.008060949124923954</v>
+        <v>0.01169976516321689</v>
       </c>
       <c r="C36">
-        <v>0.008328215815085313</v>
+        <v>0.02311233155734208</v>
       </c>
       <c r="D36">
-        <v>-0.0653030049955778</v>
+        <v>-0.06466585160814048</v>
       </c>
       <c r="E36">
-        <v>-0.05484727987769417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03414740448136569</v>
+      </c>
+      <c r="F36">
+        <v>-0.05018909480565002</v>
+      </c>
+      <c r="G36">
+        <v>-0.03051321416648981</v>
+      </c>
+      <c r="H36">
+        <v>-0.05033633183132954</v>
+      </c>
+      <c r="I36">
+        <v>-0.04442348724095419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006836377618275195</v>
+        <v>0.01177808713771301</v>
       </c>
       <c r="C38">
-        <v>0.008588919069316624</v>
+        <v>0.02772570478034767</v>
       </c>
       <c r="D38">
-        <v>-0.08183711304316227</v>
+        <v>-0.08511500667650894</v>
       </c>
       <c r="E38">
-        <v>-0.02067300451397325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.0206600198567146</v>
+      </c>
+      <c r="F38">
+        <v>-0.00475395244073617</v>
+      </c>
+      <c r="G38">
+        <v>-0.008471291998954009</v>
+      </c>
+      <c r="H38">
+        <v>-0.03697882184362935</v>
+      </c>
+      <c r="I38">
+        <v>-0.0722346768245037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01811194162909596</v>
+        <v>0.008610352599138039</v>
       </c>
       <c r="C39">
-        <v>0.06158303551543952</v>
+        <v>0.08417764635994024</v>
       </c>
       <c r="D39">
-        <v>-0.1044036445366877</v>
+        <v>-0.08492713251004709</v>
       </c>
       <c r="E39">
-        <v>-0.01088674637489525</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06139625199523861</v>
+      </c>
+      <c r="F39">
+        <v>0.008174741370802045</v>
+      </c>
+      <c r="G39">
+        <v>-0.07164667468672491</v>
+      </c>
+      <c r="H39">
+        <v>-0.05229666500604748</v>
+      </c>
+      <c r="I39">
+        <v>-0.06622436090627007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01887640802934275</v>
+        <v>0.01432407369294782</v>
       </c>
       <c r="C40">
-        <v>0.02473628964559189</v>
+        <v>0.04414530622189124</v>
       </c>
       <c r="D40">
-        <v>-0.117085544252937</v>
+        <v>-0.08993180943634488</v>
       </c>
       <c r="E40">
-        <v>-0.005757016061943132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.05832744129544268</v>
+      </c>
+      <c r="F40">
+        <v>0.02641410494420595</v>
+      </c>
+      <c r="G40">
+        <v>0.01341056657785161</v>
+      </c>
+      <c r="H40">
+        <v>-0.09333727400614426</v>
+      </c>
+      <c r="I40">
+        <v>-0.0295766663890121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01110523316979909</v>
+        <v>0.01952101394118162</v>
       </c>
       <c r="C41">
-        <v>0.00279496811042713</v>
+        <v>0.02163192952819441</v>
       </c>
       <c r="D41">
-        <v>-0.03334240799116914</v>
+        <v>-0.04233000263469087</v>
       </c>
       <c r="E41">
-        <v>-0.03257513161221946</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001362215801784691</v>
+      </c>
+      <c r="F41">
+        <v>-0.02303485127055743</v>
+      </c>
+      <c r="G41">
+        <v>-0.01934404385521028</v>
+      </c>
+      <c r="H41">
+        <v>-0.02513182687121373</v>
+      </c>
+      <c r="I41">
+        <v>-0.02822439690261379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0008129287144687822</v>
+        <v>0.01087168381069998</v>
       </c>
       <c r="C43">
-        <v>0.003258061706493261</v>
+        <v>0.01777877135042821</v>
       </c>
       <c r="D43">
-        <v>-0.04819408142782125</v>
+        <v>-0.05027540594295266</v>
       </c>
       <c r="E43">
-        <v>-0.02758519775986665</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01691707212490404</v>
+      </c>
+      <c r="F43">
+        <v>-0.0231679579979834</v>
+      </c>
+      <c r="G43">
+        <v>-0.02598578395777527</v>
+      </c>
+      <c r="H43">
+        <v>-0.02781111431531526</v>
+      </c>
+      <c r="I43">
+        <v>-0.05172509913815633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02019016558257848</v>
+        <v>0.01216870925702204</v>
       </c>
       <c r="C44">
-        <v>0.02487683821268571</v>
+        <v>0.04935804108157952</v>
       </c>
       <c r="D44">
-        <v>-0.09215694847202414</v>
+        <v>-0.09851542475216157</v>
       </c>
       <c r="E44">
-        <v>-0.06774047657779941</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04848389545006717</v>
+      </c>
+      <c r="F44">
+        <v>-0.04004563868222003</v>
+      </c>
+      <c r="G44">
+        <v>-0.01002961653405907</v>
+      </c>
+      <c r="H44">
+        <v>-0.04115221412919245</v>
+      </c>
+      <c r="I44">
+        <v>-0.0602127727411046</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005434791144770686</v>
+        <v>-0.0007683884373673511</v>
       </c>
       <c r="C46">
-        <v>0.03081614324724092</v>
+        <v>0.04274294182254357</v>
       </c>
       <c r="D46">
-        <v>-0.07548936589606084</v>
+        <v>-0.06691031882266357</v>
       </c>
       <c r="E46">
-        <v>-0.03218804199210066</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.05347663549659746</v>
+      </c>
+      <c r="F46">
+        <v>-0.0338368612977144</v>
+      </c>
+      <c r="G46">
+        <v>-0.05755179735678154</v>
+      </c>
+      <c r="H46">
+        <v>-0.08621740239606683</v>
+      </c>
+      <c r="I46">
+        <v>-0.08090514770625826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07835478810674031</v>
+        <v>0.03264296860693076</v>
       </c>
       <c r="C47">
-        <v>0.10832144248847</v>
+        <v>0.1261688584915545</v>
       </c>
       <c r="D47">
-        <v>-0.04579690860127868</v>
+        <v>-0.01717620102410273</v>
       </c>
       <c r="E47">
-        <v>-0.02331882446961918</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01214954148675842</v>
+      </c>
+      <c r="F47">
+        <v>0.005030199434905878</v>
+      </c>
+      <c r="G47">
+        <v>-0.05002786987513048</v>
+      </c>
+      <c r="H47">
+        <v>-0.01980130571877745</v>
+      </c>
+      <c r="I47">
+        <v>-0.04025372186147917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01057427438902164</v>
+        <v>0.01489310453877886</v>
       </c>
       <c r="C48">
-        <v>0.01890973492959073</v>
+        <v>0.03428395712204066</v>
       </c>
       <c r="D48">
-        <v>-0.0646779923935665</v>
+        <v>-0.06691971573114992</v>
       </c>
       <c r="E48">
-        <v>-0.05810367551009479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02520396407811726</v>
+      </c>
+      <c r="F48">
+        <v>-0.05566887175428162</v>
+      </c>
+      <c r="G48">
+        <v>-0.04740020119273258</v>
+      </c>
+      <c r="H48">
+        <v>-0.07523325512560969</v>
+      </c>
+      <c r="I48">
+        <v>-0.08146012114356314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03433558156790549</v>
+        <v>0.01439291162419759</v>
       </c>
       <c r="C50">
-        <v>0.05724886746817548</v>
+        <v>0.07523717417366324</v>
       </c>
       <c r="D50">
-        <v>-0.05295029231669399</v>
+        <v>-0.04265415501857004</v>
       </c>
       <c r="E50">
-        <v>-0.01385785726133996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01697916690535692</v>
+      </c>
+      <c r="F50">
+        <v>-0.01055587483282521</v>
+      </c>
+      <c r="G50">
+        <v>-0.003992589684635443</v>
+      </c>
+      <c r="H50">
+        <v>-0.01858530854881097</v>
+      </c>
+      <c r="I50">
+        <v>-0.03826495282498787</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.004515713246746711</v>
+        <v>-0.004590959733320169</v>
       </c>
       <c r="C51">
-        <v>0.007627030536061336</v>
+        <v>0.01749397440868889</v>
       </c>
       <c r="D51">
-        <v>-0.06159831802034431</v>
+        <v>-0.04228139330702632</v>
       </c>
       <c r="E51">
-        <v>-0.02156750735688579</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03849132670747474</v>
+      </c>
+      <c r="F51">
+        <v>-0.0357503056617263</v>
+      </c>
+      <c r="G51">
+        <v>-0.008375548497836382</v>
+      </c>
+      <c r="H51">
+        <v>-0.06433979321584612</v>
+      </c>
+      <c r="I51">
+        <v>-0.04097496249874282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1104507339852182</v>
+        <v>0.06071493316118542</v>
       </c>
       <c r="C53">
-        <v>0.1248168202970558</v>
+        <v>0.1580200368180863</v>
       </c>
       <c r="D53">
-        <v>0.01507802546030603</v>
+        <v>0.02575185145861121</v>
       </c>
       <c r="E53">
-        <v>-0.04179657495572374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03489802644186209</v>
+      </c>
+      <c r="F53">
+        <v>-0.04207687980684485</v>
+      </c>
+      <c r="G53">
+        <v>-0.006089021472915088</v>
+      </c>
+      <c r="H53">
+        <v>-0.005511212719898213</v>
+      </c>
+      <c r="I53">
+        <v>-0.02003872139394862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01195179305640331</v>
+        <v>0.01267471235082231</v>
       </c>
       <c r="C54">
-        <v>0.02342965672802619</v>
+        <v>0.04071676108121955</v>
       </c>
       <c r="D54">
-        <v>-0.08604060742525861</v>
+        <v>-0.07415712836208227</v>
       </c>
       <c r="E54">
-        <v>-0.01784861723588984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02548595790746689</v>
+      </c>
+      <c r="F54">
+        <v>-0.00548660833699469</v>
+      </c>
+      <c r="G54">
+        <v>-0.02277210120479152</v>
+      </c>
+      <c r="H54">
+        <v>-0.04837112719942624</v>
+      </c>
+      <c r="I54">
+        <v>-0.07572398062198082</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09490552286557406</v>
+        <v>0.0440430437551361</v>
       </c>
       <c r="C55">
-        <v>0.108052448462812</v>
+        <v>0.1292497710589884</v>
       </c>
       <c r="D55">
-        <v>0.001245820228712182</v>
+        <v>0.04508073676974463</v>
       </c>
       <c r="E55">
-        <v>0.005087347164557902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.001738519583692976</v>
+      </c>
+      <c r="F55">
+        <v>-0.002417907699048974</v>
+      </c>
+      <c r="G55">
+        <v>0.004617403317958626</v>
+      </c>
+      <c r="H55">
+        <v>-0.0151727623515528</v>
+      </c>
+      <c r="I55">
+        <v>-0.002405252292662509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1336031447659811</v>
+        <v>0.06127663624803705</v>
       </c>
       <c r="C56">
-        <v>0.1473469190452951</v>
+        <v>0.187737789384205</v>
       </c>
       <c r="D56">
-        <v>-0.006242157457372566</v>
+        <v>0.04208096751993227</v>
       </c>
       <c r="E56">
-        <v>0.004902969389523527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03308411467830058</v>
+      </c>
+      <c r="F56">
+        <v>-0.009186642539881034</v>
+      </c>
+      <c r="G56">
+        <v>0.04321321377234864</v>
+      </c>
+      <c r="H56">
+        <v>-0.03664596636008102</v>
+      </c>
+      <c r="I56">
+        <v>-0.01967742410336502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.002411886643391825</v>
+        <v>0.006063883116512292</v>
       </c>
       <c r="C58">
-        <v>0.02103279654703374</v>
+        <v>0.06481756334512476</v>
       </c>
       <c r="D58">
-        <v>-0.2295407970643849</v>
+        <v>-0.2753466579651411</v>
       </c>
       <c r="E58">
-        <v>-0.1455002819401096</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04934595756332024</v>
+      </c>
+      <c r="F58">
+        <v>-0.1417647828630728</v>
+      </c>
+      <c r="G58">
+        <v>0.1518023484432057</v>
+      </c>
+      <c r="H58">
+        <v>0.02458934036771304</v>
+      </c>
+      <c r="I58">
+        <v>-0.04607627957478132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1853072752109033</v>
+        <v>0.2559613512252834</v>
       </c>
       <c r="C59">
-        <v>-0.1389807310445016</v>
+        <v>-0.06146513873618294</v>
       </c>
       <c r="D59">
-        <v>-0.04223478259135093</v>
+        <v>-0.04563834702562413</v>
       </c>
       <c r="E59">
-        <v>-0.03390700469817189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0192932699275362</v>
+      </c>
+      <c r="F59">
+        <v>-0.0202734514783899</v>
+      </c>
+      <c r="G59">
+        <v>0.01438593460361726</v>
+      </c>
+      <c r="H59">
+        <v>-0.02878194742108942</v>
+      </c>
+      <c r="I59">
+        <v>0.02561666824315579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1884112720894612</v>
+        <v>0.1565400909621114</v>
       </c>
       <c r="C60">
-        <v>0.09989363936841637</v>
+        <v>0.1701947260194682</v>
       </c>
       <c r="D60">
-        <v>-0.1760206749867794</v>
+        <v>-0.06523888605620323</v>
       </c>
       <c r="E60">
-        <v>0.08393761113814996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1368457706427182</v>
+      </c>
+      <c r="F60">
+        <v>0.1977762460436275</v>
+      </c>
+      <c r="G60">
+        <v>-0.09523319815903215</v>
+      </c>
+      <c r="H60">
+        <v>0.1757928130624914</v>
+      </c>
+      <c r="I60">
+        <v>0.2538946394363329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02825144035116351</v>
+        <v>0.01658468931457885</v>
       </c>
       <c r="C61">
-        <v>0.05577744087771744</v>
+        <v>0.07929803613492004</v>
       </c>
       <c r="D61">
-        <v>-0.07806909186429677</v>
+        <v>-0.06355292842203827</v>
       </c>
       <c r="E61">
-        <v>-0.000102827890543491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04379516264616444</v>
+      </c>
+      <c r="F61">
+        <v>0.01663765313530906</v>
+      </c>
+      <c r="G61">
+        <v>-0.06630940038931665</v>
+      </c>
+      <c r="H61">
+        <v>-0.04420706106996466</v>
+      </c>
+      <c r="I61">
+        <v>-0.04484624755577213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01203349536342999</v>
+        <v>0.01594576436197213</v>
       </c>
       <c r="C63">
-        <v>0.02610295295520094</v>
+        <v>0.04296028026993338</v>
       </c>
       <c r="D63">
-        <v>-0.07478254384665753</v>
+        <v>-0.05334118821506683</v>
       </c>
       <c r="E63">
-        <v>-0.02670563179002235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.06165128782037557</v>
+      </c>
+      <c r="F63">
+        <v>-0.02300661863062509</v>
+      </c>
+      <c r="G63">
+        <v>-0.04116171416323065</v>
+      </c>
+      <c r="H63">
+        <v>-0.04263293957937361</v>
+      </c>
+      <c r="I63">
+        <v>-0.0525844134176549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05533720514077106</v>
+        <v>0.0194239626598089</v>
       </c>
       <c r="C64">
-        <v>0.0849027689084164</v>
+        <v>0.1015997472084551</v>
       </c>
       <c r="D64">
-        <v>-0.01433245510736656</v>
+        <v>-0.00771274450887466</v>
       </c>
       <c r="E64">
-        <v>-0.02165798808354942</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02095828681826269</v>
+      </c>
+      <c r="F64">
+        <v>-0.01853940909607438</v>
+      </c>
+      <c r="G64">
+        <v>-0.05066930383987552</v>
+      </c>
+      <c r="H64">
+        <v>-0.00174598632766211</v>
+      </c>
+      <c r="I64">
+        <v>-0.0496866096024124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02784720256564317</v>
+        <v>0.0261965861340741</v>
       </c>
       <c r="C65">
-        <v>0.01960227239672233</v>
+        <v>0.04789288707642961</v>
       </c>
       <c r="D65">
-        <v>-0.1040405278453803</v>
+        <v>-0.1022759535798349</v>
       </c>
       <c r="E65">
-        <v>-0.02790731465517986</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.05624306220018336</v>
+      </c>
+      <c r="F65">
+        <v>0.003667902876639516</v>
+      </c>
+      <c r="G65">
+        <v>-0.03692057007013828</v>
+      </c>
+      <c r="H65">
+        <v>0.03147088918915546</v>
+      </c>
+      <c r="I65">
+        <v>-0.02101752769513075</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02524826508963009</v>
+        <v>0.009079080727294131</v>
       </c>
       <c r="C66">
-        <v>0.0720660898836859</v>
+        <v>0.1045833381997768</v>
       </c>
       <c r="D66">
-        <v>-0.1249013726037893</v>
+        <v>-0.1104992969719452</v>
       </c>
       <c r="E66">
-        <v>-0.01177143611157904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.05660696535601308</v>
+      </c>
+      <c r="F66">
+        <v>0.008009223628668996</v>
+      </c>
+      <c r="G66">
+        <v>-0.03817827100713343</v>
+      </c>
+      <c r="H66">
+        <v>-0.039993314259747</v>
+      </c>
+      <c r="I66">
+        <v>-0.05493345219454605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02342721459767542</v>
+        <v>0.02198738282546335</v>
       </c>
       <c r="C67">
-        <v>0.02036313300817216</v>
+        <v>0.03747110273246489</v>
       </c>
       <c r="D67">
-        <v>-0.04741061052633071</v>
+        <v>-0.04371011191615157</v>
       </c>
       <c r="E67">
-        <v>0.0118406236683326</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02254798368465878</v>
+      </c>
+      <c r="F67">
+        <v>0.02603218736114457</v>
+      </c>
+      <c r="G67">
+        <v>-0.02186535607166641</v>
+      </c>
+      <c r="H67">
+        <v>-0.03096019269605267</v>
+      </c>
+      <c r="I67">
+        <v>-0.05853438689592264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2007163298696002</v>
+        <v>0.2767404131494466</v>
       </c>
       <c r="C68">
-        <v>-0.1497168723710736</v>
+        <v>-0.07088546770820764</v>
       </c>
       <c r="D68">
-        <v>-0.02879991562432974</v>
+        <v>-0.02965251558211214</v>
       </c>
       <c r="E68">
-        <v>-0.02124915835792555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004485933591788102</v>
+      </c>
+      <c r="F68">
+        <v>-0.03082576105781293</v>
+      </c>
+      <c r="G68">
+        <v>0.0814090110727775</v>
+      </c>
+      <c r="H68">
+        <v>0.008314397300296117</v>
+      </c>
+      <c r="I68">
+        <v>0.0214629955888595</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0594807502580321</v>
+        <v>0.01822837739702865</v>
       </c>
       <c r="C69">
-        <v>0.1183741488871759</v>
+        <v>0.1179806757484558</v>
       </c>
       <c r="D69">
-        <v>-0.0689713021016107</v>
+        <v>-0.01821751662584319</v>
       </c>
       <c r="E69">
-        <v>-0.01416343873204447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008034995108444166</v>
+      </c>
+      <c r="F69">
+        <v>0.01309418676317444</v>
+      </c>
+      <c r="G69">
+        <v>-0.02959377701238588</v>
+      </c>
+      <c r="H69">
+        <v>-0.02760138063586305</v>
+      </c>
+      <c r="I69">
+        <v>-0.0258593319891578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2170370439303861</v>
+        <v>0.2713176930325856</v>
       </c>
       <c r="C71">
-        <v>-0.1752996591083639</v>
+        <v>-0.08892444797980446</v>
       </c>
       <c r="D71">
-        <v>-0.02303611334528884</v>
+        <v>-0.01106533856846805</v>
       </c>
       <c r="E71">
-        <v>-0.01044439884643853</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.005162167284748817</v>
+      </c>
+      <c r="F71">
+        <v>-0.01577857472213764</v>
+      </c>
+      <c r="G71">
+        <v>0.0395228229567544</v>
+      </c>
+      <c r="H71">
+        <v>-0.01310094553037372</v>
+      </c>
+      <c r="I71">
+        <v>-0.02081065422547643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1033058660901104</v>
+        <v>0.06383753964737952</v>
       </c>
       <c r="C72">
-        <v>0.07350683640876078</v>
+        <v>0.1252424783406012</v>
       </c>
       <c r="D72">
-        <v>-0.1194494290155556</v>
+        <v>-0.0560242483962971</v>
       </c>
       <c r="E72">
-        <v>-0.001530195027836313</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0725873614010128</v>
+      </c>
+      <c r="F72">
+        <v>0.02053979603476004</v>
+      </c>
+      <c r="G72">
+        <v>-0.06127419939083932</v>
+      </c>
+      <c r="H72">
+        <v>-0.005420475432632795</v>
+      </c>
+      <c r="I72">
+        <v>-0.01619855307043897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1768511862211079</v>
+        <v>0.1599577471182247</v>
       </c>
       <c r="C73">
-        <v>0.06908630489670031</v>
+        <v>0.1621811134048608</v>
       </c>
       <c r="D73">
-        <v>-0.2270724969771324</v>
+        <v>-0.08341274187502809</v>
       </c>
       <c r="E73">
-        <v>0.1428884917330525</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2816864742261443</v>
+      </c>
+      <c r="F73">
+        <v>0.2938409747194124</v>
+      </c>
+      <c r="G73">
+        <v>-0.2799890208511157</v>
+      </c>
+      <c r="H73">
+        <v>0.2639166640847285</v>
+      </c>
+      <c r="I73">
+        <v>0.2616670101342045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1056448020823021</v>
+        <v>0.05534317704263048</v>
       </c>
       <c r="C74">
-        <v>0.1145803442518277</v>
+        <v>0.1405384856150299</v>
       </c>
       <c r="D74">
-        <v>0.0430573449386725</v>
+        <v>0.05278118418244343</v>
       </c>
       <c r="E74">
-        <v>-0.02205300183324223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02167879167049836</v>
+      </c>
+      <c r="F74">
+        <v>-0.02917753797340978</v>
+      </c>
+      <c r="G74">
+        <v>0.008081677252404156</v>
+      </c>
+      <c r="H74">
+        <v>0.01387443115918696</v>
+      </c>
+      <c r="I74">
+        <v>0.01272923313281521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2242401964985713</v>
+        <v>0.1008085148087594</v>
       </c>
       <c r="C75">
-        <v>0.2005656788408301</v>
+        <v>0.2595319719760916</v>
       </c>
       <c r="D75">
-        <v>0.08733117035282582</v>
+        <v>0.130187455081641</v>
       </c>
       <c r="E75">
-        <v>0.06891773397786995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1036144688993366</v>
+      </c>
+      <c r="F75">
+        <v>0.04176609816631312</v>
+      </c>
+      <c r="G75">
+        <v>0.09925237073069371</v>
+      </c>
+      <c r="H75">
+        <v>-0.0305405843837274</v>
+      </c>
+      <c r="I75">
+        <v>-0.09484617115925595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1364089704798344</v>
+        <v>0.06186080126697228</v>
       </c>
       <c r="C76">
-        <v>0.1377136024747341</v>
+        <v>0.1768211560521423</v>
       </c>
       <c r="D76">
-        <v>0.0006266732003412077</v>
+        <v>0.05256311186697882</v>
       </c>
       <c r="E76">
-        <v>0.009489778627495065</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02847254925181755</v>
+      </c>
+      <c r="F76">
+        <v>0.002192681556802433</v>
+      </c>
+      <c r="G76">
+        <v>0.02869289751754702</v>
+      </c>
+      <c r="H76">
+        <v>-0.03700184221153821</v>
+      </c>
+      <c r="I76">
+        <v>-0.04649324175018183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01719197236588465</v>
+        <v>0.0009530171627724445</v>
       </c>
       <c r="C77">
-        <v>0.06909356331389868</v>
+        <v>0.1094271256411661</v>
       </c>
       <c r="D77">
-        <v>-0.06111601204552201</v>
+        <v>-0.4070577200334915</v>
       </c>
       <c r="E77">
-        <v>-0.1244905204135186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.817429763942492</v>
+      </c>
+      <c r="F77">
+        <v>0.2097613472878285</v>
+      </c>
+      <c r="G77">
+        <v>-0.09725402785281222</v>
+      </c>
+      <c r="H77">
+        <v>0.1654129629357737</v>
+      </c>
+      <c r="I77">
+        <v>0.09353812898360142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03364604623853148</v>
+        <v>0.02330007412869292</v>
       </c>
       <c r="C78">
-        <v>0.07545137113812395</v>
+        <v>0.09657072731665059</v>
       </c>
       <c r="D78">
-        <v>-0.1469395787062047</v>
+        <v>-0.09377186425119981</v>
       </c>
       <c r="E78">
-        <v>-0.07224018725394492</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06453588012763102</v>
+      </c>
+      <c r="F78">
+        <v>-0.05248520737360257</v>
+      </c>
+      <c r="G78">
+        <v>0.01367857146589337</v>
+      </c>
+      <c r="H78">
+        <v>-0.09454647239084783</v>
+      </c>
+      <c r="I78">
+        <v>-0.005233124419569133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1087906437468306</v>
+        <v>0.04805502984566298</v>
       </c>
       <c r="C79">
-        <v>0.1945101420004227</v>
+        <v>0.203716541189171</v>
       </c>
       <c r="D79">
-        <v>0.3510873255185868</v>
+        <v>0.1280168674537264</v>
       </c>
       <c r="E79">
-        <v>-0.8077223631272963</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1043405128494981</v>
+      </c>
+      <c r="F79">
+        <v>-0.7820000181179174</v>
+      </c>
+      <c r="G79">
+        <v>-0.2421192057674944</v>
+      </c>
+      <c r="H79">
+        <v>0.3417837757573592</v>
+      </c>
+      <c r="I79">
+        <v>0.2258100127953197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.003914912597631878</v>
+        <v>0.007730640466453584</v>
       </c>
       <c r="C80">
-        <v>0.04425805731858695</v>
+        <v>0.04428875798515034</v>
       </c>
       <c r="D80">
-        <v>-0.04990506453030558</v>
+        <v>-0.03516452691558271</v>
       </c>
       <c r="E80">
-        <v>-0.006584811768778493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.05321214516366175</v>
+      </c>
+      <c r="F80">
+        <v>-0.003149762179123662</v>
+      </c>
+      <c r="G80">
+        <v>-0.01462503497884485</v>
+      </c>
+      <c r="H80">
+        <v>-0.06385737610691895</v>
+      </c>
+      <c r="I80">
+        <v>0.06475564316548139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1142893022264869</v>
+        <v>0.04090485498212949</v>
       </c>
       <c r="C81">
-        <v>0.1336789000606998</v>
+        <v>0.159457043336915</v>
       </c>
       <c r="D81">
-        <v>0.08227923595286631</v>
+        <v>0.07892161826118663</v>
       </c>
       <c r="E81">
-        <v>-0.01585571774556065</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05859865664703093</v>
+      </c>
+      <c r="F81">
+        <v>-0.05631141232806512</v>
+      </c>
+      <c r="G81">
+        <v>0.032065753886585</v>
+      </c>
+      <c r="H81">
+        <v>-0.08173769222504984</v>
+      </c>
+      <c r="I81">
+        <v>-0.04811840409015992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.237439452110402</v>
+        <v>0.08711836261230461</v>
       </c>
       <c r="C82">
-        <v>0.2920652431891723</v>
+        <v>0.3009576444453821</v>
       </c>
       <c r="D82">
-        <v>0.1597991205228902</v>
+        <v>0.2350145046433569</v>
       </c>
       <c r="E82">
-        <v>0.2128192314095241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0858194399149922</v>
+      </c>
+      <c r="F82">
+        <v>0.125700790053767</v>
+      </c>
+      <c r="G82">
+        <v>0.06973751284477196</v>
+      </c>
+      <c r="H82">
+        <v>-0.1329386866322456</v>
+      </c>
+      <c r="I82">
+        <v>-0.0801590339320967</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.009718300400095099</v>
+        <v>-0.01005620803272727</v>
       </c>
       <c r="C83">
-        <v>0.05354985425237438</v>
+        <v>0.020971270095888</v>
       </c>
       <c r="D83">
-        <v>-0.008910747444014279</v>
+        <v>-0.0236296037953282</v>
       </c>
       <c r="E83">
-        <v>-0.04279074377095205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0838443502309862</v>
+      </c>
+      <c r="F83">
+        <v>-0.07186365816460233</v>
+      </c>
+      <c r="G83">
+        <v>0.0334242259179942</v>
+      </c>
+      <c r="H83">
+        <v>-0.6171782825212873</v>
+      </c>
+      <c r="I83">
+        <v>0.7028393935638008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0001262483948836814</v>
+        <v>-0.003365520766459629</v>
       </c>
       <c r="C84">
-        <v>-0.001522777081891933</v>
+        <v>0.01852734593582606</v>
       </c>
       <c r="D84">
-        <v>-0.0009518307887859292</v>
+        <v>-0.04151255566175197</v>
       </c>
       <c r="E84">
-        <v>0.002434492920253857</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.006815406557439741</v>
+      </c>
+      <c r="F84">
+        <v>-0.03169304782105788</v>
+      </c>
+      <c r="G84">
+        <v>0.02504614579560758</v>
+      </c>
+      <c r="H84">
+        <v>-0.01749288372368563</v>
+      </c>
+      <c r="I84">
+        <v>-0.07931386060722861</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1413982720924221</v>
+        <v>0.05697429061731552</v>
       </c>
       <c r="C85">
-        <v>0.1415559785846228</v>
+        <v>0.1754808117889311</v>
       </c>
       <c r="D85">
-        <v>0.06410129833562901</v>
+        <v>0.1114420849584117</v>
       </c>
       <c r="E85">
-        <v>-0.02492257105292248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.01241538839178749</v>
+      </c>
+      <c r="F85">
+        <v>-0.06538379288659664</v>
+      </c>
+      <c r="G85">
+        <v>0.03258074234417752</v>
+      </c>
+      <c r="H85">
+        <v>0.003937175656185764</v>
+      </c>
+      <c r="I85">
+        <v>-0.01316134223034382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0206199753734247</v>
+        <v>0.0159128349764539</v>
       </c>
       <c r="C86">
-        <v>0.009820716036612505</v>
+        <v>0.04003209451269883</v>
       </c>
       <c r="D86">
-        <v>-0.09224219217831357</v>
+        <v>-0.1076214164665873</v>
       </c>
       <c r="E86">
-        <v>-0.03826964083045344</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01280918773963429</v>
+      </c>
+      <c r="F86">
+        <v>-0.01842410310510885</v>
+      </c>
+      <c r="G86">
+        <v>-0.01563963814879808</v>
+      </c>
+      <c r="H86">
+        <v>0.01822022655913546</v>
+      </c>
+      <c r="I86">
+        <v>-0.02290438184827015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02270340064056725</v>
+        <v>0.01411977808497255</v>
       </c>
       <c r="C87">
-        <v>0.03109543873222479</v>
+        <v>0.06635393112064351</v>
       </c>
       <c r="D87">
-        <v>-0.1324840357106524</v>
+        <v>-0.136378320057691</v>
       </c>
       <c r="E87">
-        <v>-0.07892059351749613</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.02883267142810032</v>
+      </c>
+      <c r="F87">
+        <v>-0.05019847569887165</v>
+      </c>
+      <c r="G87">
+        <v>0.01448365329316005</v>
+      </c>
+      <c r="H87">
+        <v>-0.07384506219800795</v>
+      </c>
+      <c r="I87">
+        <v>-0.03402048092953114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05213511065521041</v>
+        <v>0.03673522698859742</v>
       </c>
       <c r="C88">
-        <v>0.04481253751263405</v>
+        <v>0.07016598881687247</v>
       </c>
       <c r="D88">
-        <v>-0.007897956837169715</v>
+        <v>-0.012460263767405</v>
       </c>
       <c r="E88">
-        <v>-0.02315911007967481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02664673701241238</v>
+      </c>
+      <c r="F88">
+        <v>-0.01856576710679447</v>
+      </c>
+      <c r="G88">
+        <v>-0.02368323772296417</v>
+      </c>
+      <c r="H88">
+        <v>0.005749819646693455</v>
+      </c>
+      <c r="I88">
+        <v>-0.02334888733862496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3234018302325217</v>
+        <v>0.3975557946208234</v>
       </c>
       <c r="C89">
-        <v>-0.3214227514180296</v>
+        <v>-0.1683334709021219</v>
       </c>
       <c r="D89">
-        <v>-0.01952063724390186</v>
+        <v>-0.04303692069215306</v>
       </c>
       <c r="E89">
-        <v>-0.1065941411202275</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05249663724171325</v>
+      </c>
+      <c r="F89">
+        <v>-0.06304097059139108</v>
+      </c>
+      <c r="G89">
+        <v>-0.03303485059690069</v>
+      </c>
+      <c r="H89">
+        <v>-0.1594175320791382</v>
+      </c>
+      <c r="I89">
+        <v>-0.01242954719169906</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.259055162976056</v>
+        <v>0.3221730253400307</v>
       </c>
       <c r="C90">
-        <v>-0.235181040071343</v>
+        <v>-0.1098617426907781</v>
       </c>
       <c r="D90">
-        <v>-0.05661846780369575</v>
+        <v>-0.03320882028648806</v>
       </c>
       <c r="E90">
-        <v>-0.0002246201354968855</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0028736355319361</v>
+      </c>
+      <c r="F90">
+        <v>0.004695217257265387</v>
+      </c>
+      <c r="G90">
+        <v>0.05490822037860947</v>
+      </c>
+      <c r="H90">
+        <v>-0.03023620804903125</v>
+      </c>
+      <c r="I90">
+        <v>-0.004969396128681582</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1492353036373242</v>
+        <v>0.06817693491407441</v>
       </c>
       <c r="C91">
-        <v>0.1884818192401052</v>
+        <v>0.2010440943503449</v>
       </c>
       <c r="D91">
-        <v>0.106726308394749</v>
+        <v>0.1110359195352486</v>
       </c>
       <c r="E91">
-        <v>-0.04568309032608637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07576912816517573</v>
+      </c>
+      <c r="F91">
+        <v>-0.05651052404006138</v>
+      </c>
+      <c r="G91">
+        <v>0.01195227708986217</v>
+      </c>
+      <c r="H91">
+        <v>-0.01065044800596018</v>
+      </c>
+      <c r="I91">
+        <v>0.01862598058108085</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2426949558801859</v>
+        <v>0.3319994642329772</v>
       </c>
       <c r="C92">
-        <v>-0.2614627729864797</v>
+        <v>-0.1512936345740263</v>
       </c>
       <c r="D92">
-        <v>0.04976599588144159</v>
+        <v>-0.0164792141563697</v>
       </c>
       <c r="E92">
-        <v>-0.03045298025312019</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07005909747412374</v>
+      </c>
+      <c r="F92">
+        <v>-0.03957721389730087</v>
+      </c>
+      <c r="G92">
+        <v>0.01199701623547265</v>
+      </c>
+      <c r="H92">
+        <v>0.04829867374721945</v>
+      </c>
+      <c r="I92">
+        <v>-0.1350301842536333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2840898961906929</v>
+        <v>0.3299048545131387</v>
       </c>
       <c r="C93">
-        <v>-0.2493088197005624</v>
+        <v>-0.1236214902974208</v>
       </c>
       <c r="D93">
-        <v>0.004625205747905483</v>
+        <v>0.02191443881249576</v>
       </c>
       <c r="E93">
-        <v>-0.005063681436627446</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01623664306780794</v>
+      </c>
+      <c r="F93">
+        <v>-0.01210640794671147</v>
+      </c>
+      <c r="G93">
+        <v>-0.0008456313344939403</v>
+      </c>
+      <c r="H93">
+        <v>0.03847493894691286</v>
+      </c>
+      <c r="I93">
+        <v>-0.01574268038943762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2757873603920839</v>
+        <v>0.1229094687847057</v>
       </c>
       <c r="C94">
-        <v>0.2655624560752144</v>
+        <v>0.326525072274868</v>
       </c>
       <c r="D94">
-        <v>0.2467874449785338</v>
+        <v>0.3508659033988299</v>
       </c>
       <c r="E94">
-        <v>0.2764080555644297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.0807773833210768</v>
+      </c>
+      <c r="F94">
+        <v>0.1258595815735253</v>
+      </c>
+      <c r="G94">
+        <v>0.2988532554060389</v>
+      </c>
+      <c r="H94">
+        <v>-0.0639780499156918</v>
+      </c>
+      <c r="I94">
+        <v>-0.08675442276906183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.009339376944884304</v>
+        <v>0.01686359432338179</v>
       </c>
       <c r="C95">
-        <v>0.03863607518069491</v>
+        <v>0.06644553121062724</v>
       </c>
       <c r="D95">
-        <v>-0.01895790226016496</v>
+        <v>-0.1096126687600642</v>
       </c>
       <c r="E95">
-        <v>-0.03945656168462235</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1311474393242739</v>
+      </c>
+      <c r="F95">
+        <v>0.04115896975706924</v>
+      </c>
+      <c r="G95">
+        <v>-0.2205084110246893</v>
+      </c>
+      <c r="H95">
+        <v>-0.119469839390637</v>
+      </c>
+      <c r="I95">
+        <v>-0.222018348303298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002314633576418365</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001096077918261344</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0001252924474515462</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003574324219196501</v>
+      </c>
+      <c r="F97">
+        <v>-0.0006379374782851453</v>
+      </c>
+      <c r="G97">
+        <v>-0.0003323816047723246</v>
+      </c>
+      <c r="H97">
+        <v>2.500796642667184e-05</v>
+      </c>
+      <c r="I97">
+        <v>-0.006791009595131459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1550891609109793</v>
+        <v>0.1357218287695672</v>
       </c>
       <c r="C98">
-        <v>0.09174820117185398</v>
+        <v>0.161923080916768</v>
       </c>
       <c r="D98">
-        <v>-0.1460806413169808</v>
+        <v>-0.03831250805708625</v>
       </c>
       <c r="E98">
-        <v>0.1303494739024238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1845056711311339</v>
+      </c>
+      <c r="F98">
+        <v>0.2410233127335903</v>
+      </c>
+      <c r="G98">
+        <v>-0.1850431258587171</v>
+      </c>
+      <c r="H98">
+        <v>0.1878550079452541</v>
+      </c>
+      <c r="I98">
+        <v>0.237760853553414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002450948846614391</v>
+        <v>0.00371099265546664</v>
       </c>
       <c r="C101">
-        <v>0.02187113038201522</v>
+        <v>0.04000965909186973</v>
       </c>
       <c r="D101">
-        <v>-0.07658863152657319</v>
+        <v>-0.09036263270773073</v>
       </c>
       <c r="E101">
-        <v>-0.03408497446327004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.07233142624942596</v>
+      </c>
+      <c r="F101">
+        <v>-0.0309044825715942</v>
+      </c>
+      <c r="G101">
+        <v>-0.09461118941425954</v>
+      </c>
+      <c r="H101">
+        <v>-0.12416051316141</v>
+      </c>
+      <c r="I101">
+        <v>-0.07072901210816318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1011473837949955</v>
+        <v>0.02462729360152007</v>
       </c>
       <c r="C102">
-        <v>0.1587621743504509</v>
+        <v>0.140644205352219</v>
       </c>
       <c r="D102">
-        <v>0.05057330311512299</v>
+        <v>0.102874522483294</v>
       </c>
       <c r="E102">
-        <v>0.0956833559840513</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04975126235138506</v>
+      </c>
+      <c r="F102">
+        <v>0.08074135359927814</v>
+      </c>
+      <c r="G102">
+        <v>-0.00436364009691083</v>
+      </c>
+      <c r="H102">
+        <v>-0.03986913857571417</v>
+      </c>
+      <c r="I102">
+        <v>-0.004572957649234773</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
